--- a/app/assets/database/questions_template.xlsx
+++ b/app/assets/database/questions_template.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493362F3-D284-4F40-9010-94D889E07C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="5140" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="5145" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="page" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">page!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,36 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Вопрос</t>
   </si>
   <si>
     <t>Ответ</t>
   </si>
-  <si>
-    <t>вопрос1</t>
-  </si>
-  <si>
-    <t>ответ2</t>
-  </si>
-  <si>
-    <t>вопрос3</t>
-  </si>
-  <si>
-    <t>вопрос 4</t>
-  </si>
-  <si>
-    <t>ответ 4</t>
-  </si>
-  <si>
-    <t>ответ25</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,27 +362,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,34 +390,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
